--- a/PHPService/新報告傳輸系統_Template.xlsx
+++ b/PHPService/新報告傳輸系統_Template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\薛羽倢\Application\基因報告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEC223D-B383-4693-A9DC-B8928909E932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A9D9581-ACD1-451B-88FF-5DA4AD29DB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="662" xr2:uid="{58BF3F46-769F-7C44-81AF-97AE6FEE40FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="檢測項目清單" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="檢測項目清單" sheetId="5" r:id="rId2"/>
     <sheet name="顧客資料維護" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="TAT原則" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="ref" sheetId="2" state="hidden" r:id="rId5"/>
@@ -4577,6 +4577,9 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4593,9 +4596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4916,7 +4916,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -5300,30 +5300,12 @@
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
       <c r="R6" s="49"/>
-      <c r="S6" s="49" t="str">
-        <f>IF(ISNUMBER(MATCH($F6,檢測項目清單!$I:$I,0)),IFERROR(VLOOKUP($I6,檢測項目清單!$H:$J,3,0),""),IFERROR(VLOOKUP($I6,檢測項目清單!$A:$D,4,0),""))</f>
-        <v/>
-      </c>
-      <c r="T6" s="49" t="str">
-        <f>IFERROR(VLOOKUP($F:$F,顧客資料維護!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="U6" s="49" t="str">
-        <f>IFERROR(VLOOKUP($F:$F,顧客資料維護!$A:$C,3,0),"null")</f>
-        <v>null</v>
-      </c>
-      <c r="V6" s="49" t="str">
-        <f>IFERROR(VLOOKUP($F:$F,顧客資料維護!$A:$D,4,0),"null")</f>
-        <v>null</v>
-      </c>
-      <c r="W6" s="49" t="str">
-        <f>IFERROR(VLOOKUP($F:$F,顧客資料維護!$A:$E,5,0),"null")</f>
-        <v>null</v>
-      </c>
-      <c r="X6" s="47" t="str">
-        <f>IFERROR(VLOOKUP($F:$F,TAT原則!$C:$D,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5339,7 +5321,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{431A82D4-D1EE-410E-81C7-C8D5EF38120D}">
           <x14:formula1>
             <xm:f>檢測項目系列!$A$1:$N$1</xm:f>
@@ -5364,17 +5346,11 @@
           </x14:formula1>
           <xm:sqref>R3 R6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6416B216-D931-4200-8CC7-67A1379266F3}">
-          <x14:formula1>
-            <xm:f>醫療院所!$C$3:$C$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>F6</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88FD3563-AA2E-492B-9533-42F950E9D962}">
           <x14:formula1>
             <xm:f>醫療院所!$N$1:$AW$1</xm:f>
           </x14:formula1>
-          <xm:sqref>F3</xm:sqref>
+          <xm:sqref>F3 F6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0F2D15AC-ECEB-47C9-969B-EB0C259845D1}">
           <x14:formula1>
@@ -5405,7 +5381,7 @@
   <dimension ref="A1:T139"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5"/>
@@ -5466,7 +5442,7 @@
       <c r="S2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="79" t="s">
+      <c r="T2" s="73" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -8545,7 +8521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A911A9-1609-4B6A-99B7-2E4DFA8D91D3}">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -13483,20 +13459,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>951</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75" t="s">
         <v>952</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
       <c r="M1" s="60" t="str" cm="1">
         <f t="array" ref="M1:AY9">TRANSPOSE(IF(C2:K40="","",C2:K40))</f>
         <v>醫療院所名稱</v>
@@ -13767,7 +13743,7 @@
       </c>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>961</v>
       </c>
       <c r="B3" s="53" t="s">
@@ -13899,7 +13875,7 @@
       </c>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="78"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="53" t="s">
         <v>623</v>
       </c>
@@ -14047,7 +14023,7 @@
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="78"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="53" t="s">
         <v>625</v>
       </c>
@@ -14174,7 +14150,7 @@
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="78"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="53" t="s">
         <v>630</v>
       </c>
@@ -14307,7 +14283,7 @@
       </c>
     </row>
     <row r="7" spans="1:51">
-      <c r="A7" s="78"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="53" t="s">
         <v>631</v>
       </c>
@@ -14437,7 +14413,7 @@
       </c>
     </row>
     <row r="8" spans="1:51">
-      <c r="A8" s="78"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="53" t="s">
         <v>633</v>
       </c>
@@ -14576,7 +14552,7 @@
       </c>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="78"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="53" t="s">
         <v>635</v>
       </c>
@@ -14718,7 +14694,7 @@
       </c>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="78"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="53" t="s">
         <v>637</v>
       </c>
@@ -14767,7 +14743,7 @@
       <c r="AY10" s="60"/>
     </row>
     <row r="11" spans="1:51">
-      <c r="A11" s="78"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="53" t="s">
         <v>642</v>
       </c>
@@ -14777,7 +14753,7 @@
       </c>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="78"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="53" t="s">
         <v>645</v>
       </c>
@@ -14793,7 +14769,7 @@
       </c>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="78"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="53" t="s">
         <v>647</v>
       </c>
@@ -14818,7 +14794,7 @@
       </c>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="78"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="53" t="s">
         <v>649</v>
       </c>
@@ -14828,7 +14804,7 @@
       </c>
     </row>
     <row r="15" spans="1:51">
-      <c r="A15" s="78"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="53" t="s">
         <v>654</v>
       </c>
@@ -14841,7 +14817,7 @@
       </c>
     </row>
     <row r="16" spans="1:51">
-      <c r="A16" s="78"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="53" t="s">
         <v>659</v>
       </c>
@@ -14857,7 +14833,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="74" t="s">
         <v>991</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -14872,7 +14848,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="73"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="53" t="s">
         <v>663</v>
       </c>
@@ -14891,7 +14867,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="73"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="53" t="s">
         <v>668</v>
       </c>
@@ -14901,7 +14877,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="73"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="53" t="s">
         <v>672</v>
       </c>
@@ -14911,7 +14887,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="73"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="53" t="s">
         <v>677</v>
       </c>
@@ -14921,7 +14897,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="73"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="53" t="s">
         <v>679</v>
       </c>
@@ -14937,7 +14913,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="53" t="s">
         <v>684</v>
       </c>
@@ -14953,7 +14929,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="53" t="s">
         <v>689</v>
       </c>
@@ -14966,7 +14942,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="53" t="s">
         <v>694</v>
       </c>
@@ -14976,7 +14952,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="56" t="s">
         <v>696</v>
       </c>
@@ -14989,7 +14965,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="53" t="s">
         <v>698</v>
       </c>
@@ -14999,7 +14975,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="74" t="s">
         <v>1002</v>
       </c>
       <c r="B28" s="53" t="s">
@@ -15014,7 +14990,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="53" t="s">
         <v>702</v>
       </c>
@@ -15030,7 +15006,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="53" t="s">
         <v>704</v>
       </c>
@@ -15043,7 +15019,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="73"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="53" t="s">
         <v>706</v>
       </c>
@@ -15065,7 +15041,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="73"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="53" t="s">
         <v>711</v>
       </c>
@@ -15075,7 +15051,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="73"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="53" t="s">
         <v>715</v>
       </c>
